--- a/public/template/mlgl0005.xlsx
+++ b/public/template/mlgl0005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\PMadmin\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F36FBA-2A3D-4AA3-896B-F400FACD65C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800185D8-D78E-4E6A-8236-6A2576E84029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="8565" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
     <t>单位</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>市场价</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
     <t xml:space="preserve">白水泥 </t>
   </si>
   <si>
@@ -66,8 +57,17 @@
     <t xml:space="preserve">中(粗)砂 </t>
   </si>
   <si>
-    <t>浮动比例%</t>
+    <t>预算数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算单价(元)</t>
+  </si>
+  <si>
+    <t>预算总价(元)</t>
+  </si>
+  <si>
+    <t>预算浮动比例%</t>
   </si>
 </sst>
 </file>
@@ -395,17 +395,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -419,13 +419,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -436,10 +436,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -459,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -482,10 +482,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -505,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -528,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>108</v>
